--- a/pictures/Colombia_Rt_Cori.xlsx
+++ b/pictures/Colombia_Rt_Cori.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
   <si>
     <t>t_start</t>
   </si>
@@ -201,6 +201,24 @@
   </si>
   <si>
     <t>51</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>57</t>
   </si>
 </sst>
 </file>
@@ -305,34 +323,34 @@
         <v>9.0</v>
       </c>
       <c r="D2" t="n">
-        <v>2.9180258778798347</v>
+        <v>3.167336752335165</v>
       </c>
       <c r="E2" t="n">
-        <v>0.33694460521924335</v>
+        <v>0.6911695437614995</v>
       </c>
       <c r="F2" t="n">
-        <v>2.2952124608985507</v>
+        <v>1.9606313705539886</v>
       </c>
       <c r="G2" t="n">
-        <v>2.3867851705508563</v>
+        <v>2.1224210078662593</v>
       </c>
       <c r="H2" t="n">
-        <v>3.4934729175198007</v>
+        <v>4.383295255731602</v>
       </c>
       <c r="I2" t="n">
-        <v>2.9050671710311313</v>
+        <v>3.1172059118300366</v>
       </c>
       <c r="J2" t="n">
-        <v>3.4934729175198007</v>
+        <v>4.383295255731602</v>
       </c>
       <c r="K2" t="n">
-        <v>3.4934729175198007</v>
+        <v>4.383295255731602</v>
       </c>
       <c r="L2" t="n">
-        <v>3.6144700831913967</v>
+        <v>4.658756883388507</v>
       </c>
       <c r="M2" t="n" s="2">
-        <v>43901.0</v>
+        <v>43903.0</v>
       </c>
     </row>
     <row r="3">
@@ -346,34 +364,34 @@
         <v>10.0</v>
       </c>
       <c r="D3" t="n">
-        <v>2.6214713812402373</v>
+        <v>2.7582160683209773</v>
       </c>
       <c r="E3" t="n">
-        <v>0.2748048698854604</v>
+        <v>0.5516432136641954</v>
       </c>
       <c r="F3" t="n">
-        <v>2.1106452310031787</v>
+        <v>1.7849720094774308</v>
       </c>
       <c r="G3" t="n">
-        <v>2.1864173078444065</v>
+        <v>1.9177463519317828</v>
       </c>
       <c r="H3" t="n">
-        <v>3.089260728134007</v>
+        <v>3.7238568422768736</v>
       </c>
       <c r="I3" t="n">
-        <v>2.6118752002071326</v>
+        <v>2.7215283045850747</v>
       </c>
       <c r="J3" t="n">
-        <v>3.089260728134007</v>
+        <v>3.7238568422768736</v>
       </c>
       <c r="K3" t="n">
-        <v>3.089260728134007</v>
+        <v>3.7238568422768736</v>
       </c>
       <c r="L3" t="n">
-        <v>3.186824230889381</v>
+        <v>3.939846599376014</v>
       </c>
       <c r="M3" t="n" s="2">
-        <v>43902.0</v>
+        <v>43904.0</v>
       </c>
     </row>
     <row r="4">
@@ -387,34 +405,34 @@
         <v>11.0</v>
       </c>
       <c r="D4" t="n">
-        <v>2.7911280590772045</v>
+        <v>2.9304688201752573</v>
       </c>
       <c r="E4" t="n">
-        <v>0.24865345046852946</v>
+        <v>0.495339638344075</v>
       </c>
       <c r="F4" t="n">
-        <v>2.325084212101886</v>
+        <v>2.0411789058406122</v>
       </c>
       <c r="G4" t="n">
-        <v>2.3951047344946144</v>
+        <v>2.1660048728694843</v>
       </c>
       <c r="H4" t="n">
-        <v>3.2123277898028055</v>
+        <v>3.789984762702499</v>
       </c>
       <c r="I4" t="n">
-        <v>2.783747605233167</v>
+        <v>2.9026073411344786</v>
       </c>
       <c r="J4" t="n">
-        <v>3.2123277898028055</v>
+        <v>3.789984762702499</v>
       </c>
       <c r="K4" t="n">
-        <v>3.2123277898028055</v>
+        <v>3.789984762702499</v>
       </c>
       <c r="L4" t="n">
-        <v>3.2991101969448877</v>
+        <v>3.9780354066250836</v>
       </c>
       <c r="M4" t="n" s="2">
-        <v>43903.0</v>
+        <v>43905.0</v>
       </c>
     </row>
     <row r="5">
@@ -428,34 +446,34 @@
         <v>12.0</v>
       </c>
       <c r="D5" t="n">
-        <v>2.7568776387845704</v>
+        <v>2.840400109034252</v>
       </c>
       <c r="E5" t="n">
-        <v>0.21795031422365496</v>
+        <v>0.4282064280068719</v>
       </c>
       <c r="F5" t="n">
-        <v>2.3462493777463536</v>
+        <v>2.063839067498845</v>
       </c>
       <c r="G5" t="n">
-        <v>2.408440900246491</v>
+        <v>2.1746243477169633</v>
       </c>
       <c r="H5" t="n">
-        <v>3.1248993006154535</v>
+        <v>3.5794852194231113</v>
       </c>
       <c r="I5" t="n">
-        <v>2.7511362757806594</v>
+        <v>2.818911148040993</v>
       </c>
       <c r="J5" t="n">
-        <v>3.1248993006154535</v>
+        <v>3.5794852194231113</v>
       </c>
       <c r="K5" t="n">
-        <v>3.1248993006154535</v>
+        <v>3.5794852194231113</v>
       </c>
       <c r="L5" t="n">
-        <v>3.2001310091226585</v>
+        <v>3.739045754180814</v>
       </c>
       <c r="M5" t="n" s="2">
-        <v>43904.0</v>
+        <v>43906.0</v>
       </c>
     </row>
     <row r="6">
@@ -469,34 +487,34 @@
         <v>13.0</v>
       </c>
       <c r="D6" t="n">
-        <v>3.1429277460292684</v>
+        <v>2.4151473630020113</v>
       </c>
       <c r="E6" t="n">
-        <v>0.20415509551394107</v>
+        <v>0.34502105185743015</v>
       </c>
       <c r="F6" t="n">
-        <v>2.7554957780943363</v>
+        <v>1.7867393147238546</v>
       </c>
       <c r="G6" t="n">
-        <v>2.8148289864330622</v>
+        <v>1.8770079965816897</v>
       </c>
       <c r="H6" t="n">
-        <v>3.4861015402475286</v>
+        <v>3.0092670739291303</v>
       </c>
       <c r="I6" t="n">
-        <v>3.138508420177934</v>
+        <v>2.3987378068834273</v>
       </c>
       <c r="J6" t="n">
-        <v>3.4861015402475286</v>
+        <v>3.0092670739291303</v>
       </c>
       <c r="K6" t="n">
-        <v>3.4861015402475286</v>
+        <v>3.0092670739291303</v>
       </c>
       <c r="L6" t="n">
-        <v>3.555473037183279</v>
+        <v>3.136785320693475</v>
       </c>
       <c r="M6" t="n" s="2">
-        <v>43905.0</v>
+        <v>43907.0</v>
       </c>
     </row>
     <row r="7">
@@ -510,34 +528,34 @@
         <v>14.0</v>
       </c>
       <c r="D7" t="n">
-        <v>3.0875872178815076</v>
+        <v>2.2722785508682137</v>
       </c>
       <c r="E7" t="n">
-        <v>0.17621791022145977</v>
+        <v>0.29582546998261733</v>
       </c>
       <c r="F7" t="n">
-        <v>2.7518286577371773</v>
+        <v>1.7297637136979376</v>
       </c>
       <c r="G7" t="n">
-        <v>2.803563856042013</v>
+        <v>1.808546694075664</v>
       </c>
       <c r="H7" t="n">
-        <v>3.3830439900892317</v>
+        <v>2.779760616394999</v>
       </c>
       <c r="I7" t="n">
-        <v>3.084235436642054</v>
+        <v>2.2594537929908327</v>
       </c>
       <c r="J7" t="n">
-        <v>3.3830439900892317</v>
+        <v>2.779760616394999</v>
       </c>
       <c r="K7" t="n">
-        <v>3.3830439900892317</v>
+        <v>2.779760616394999</v>
       </c>
       <c r="L7" t="n">
-        <v>3.442392889527217</v>
+        <v>2.88765971410542</v>
       </c>
       <c r="M7" t="n" s="2">
-        <v>43906.0</v>
+        <v>43908.0</v>
       </c>
     </row>
     <row r="8">
@@ -551,34 +569,34 @@
         <v>15.0</v>
       </c>
       <c r="D8" t="n">
-        <v>2.7509949249094023</v>
+        <v>2.2131735394624896</v>
       </c>
       <c r="E8" t="n">
-        <v>0.14321107545318826</v>
+        <v>0.26265537630340535</v>
       </c>
       <c r="F8" t="n">
-        <v>2.4774329824170382</v>
+        <v>1.728506896007959</v>
       </c>
       <c r="G8" t="n">
-        <v>2.5197476135431343</v>
+        <v>1.7995768910399343</v>
       </c>
       <c r="H8" t="n">
-        <v>2.990717851665003</v>
+        <v>2.662185891747018</v>
       </c>
       <c r="I8" t="n">
-        <v>2.748510234129025</v>
+        <v>2.2027917702984956</v>
       </c>
       <c r="J8" t="n">
-        <v>2.990717851665003</v>
+        <v>2.662185891747018</v>
       </c>
       <c r="K8" t="n">
-        <v>2.990717851665003</v>
+        <v>2.662185891747018</v>
       </c>
       <c r="L8" t="n">
-        <v>3.0386766762804465</v>
+        <v>2.7568283612994127</v>
       </c>
       <c r="M8" t="n" s="2">
-        <v>43907.0</v>
+        <v>43909.0</v>
       </c>
     </row>
     <row r="9">
@@ -592,34 +610,34 @@
         <v>16.0</v>
       </c>
       <c r="D9" t="n">
-        <v>2.4196514627976056</v>
+        <v>2.352338842406411</v>
       </c>
       <c r="E9" t="n">
-        <v>0.11668595500882832</v>
+        <v>0.24524827769403512</v>
       </c>
       <c r="F9" t="n">
-        <v>2.196326664765778</v>
+        <v>1.8963171131756384</v>
       </c>
       <c r="G9" t="n">
-        <v>2.2309720664849264</v>
+        <v>1.9639916894872493</v>
       </c>
       <c r="H9" t="n">
-        <v>2.6147282254721156</v>
+        <v>2.769741413436582</v>
       </c>
       <c r="I9" t="n">
-        <v>2.4177760227029856</v>
+        <v>2.3438213872258387</v>
       </c>
       <c r="J9" t="n">
-        <v>2.6147282254721156</v>
+        <v>2.769741413436582</v>
       </c>
       <c r="K9" t="n">
-        <v>2.6147282254721156</v>
+        <v>2.769741413436582</v>
       </c>
       <c r="L9" t="n">
-        <v>2.6536339188540916</v>
+        <v>2.8567578896974606</v>
       </c>
       <c r="M9" t="n" s="2">
-        <v>43908.0</v>
+        <v>43910.0</v>
       </c>
     </row>
     <row r="10">
@@ -633,34 +651,34 @@
         <v>17.0</v>
       </c>
       <c r="D10" t="n">
-        <v>2.3291906866711187</v>
+        <v>2.0718520753958</v>
       </c>
       <c r="E10" t="n">
-        <v>0.10126916029004863</v>
+        <v>0.2082289683396059</v>
       </c>
       <c r="F10" t="n">
-        <v>2.1349094406195377</v>
+        <v>1.683899131533485</v>
       </c>
       <c r="G10" t="n">
-        <v>2.165158215770689</v>
+        <v>1.7416495427107228</v>
       </c>
       <c r="H10" t="n">
-        <v>2.4982289919521197</v>
+        <v>2.425837071648916</v>
       </c>
       <c r="I10" t="n">
-        <v>2.3277231822050566</v>
+        <v>2.064880333536806</v>
       </c>
       <c r="J10" t="n">
-        <v>2.4982289919521197</v>
+        <v>2.425837071648916</v>
       </c>
       <c r="K10" t="n">
-        <v>2.4982289919521197</v>
+        <v>2.425837071648916</v>
       </c>
       <c r="L10" t="n">
-        <v>2.531811440327193</v>
+        <v>2.499419775773933</v>
       </c>
       <c r="M10" t="n" s="2">
-        <v>43909.0</v>
+        <v>43911.0</v>
       </c>
     </row>
     <row r="11">
@@ -674,34 +692,34 @@
         <v>18.0</v>
       </c>
       <c r="D11" t="n">
-        <v>2.31872913875993</v>
+        <v>1.7846716236503046</v>
       </c>
       <c r="E11" t="n">
-        <v>0.09060024450141727</v>
+        <v>0.1750014506605427</v>
       </c>
       <c r="F11" t="n">
-        <v>2.1445322964908424</v>
+        <v>1.4582060418957303</v>
       </c>
       <c r="G11" t="n">
-        <v>2.171744536106325</v>
+        <v>1.5069005904813098</v>
       </c>
       <c r="H11" t="n">
-        <v>2.469738542071812</v>
+        <v>2.081944235568262</v>
       </c>
       <c r="I11" t="n">
-        <v>2.3175492307490377</v>
+        <v>1.7789547930606744</v>
       </c>
       <c r="J11" t="n">
-        <v>2.469738542071812</v>
+        <v>2.081944235568262</v>
       </c>
       <c r="K11" t="n">
-        <v>2.469738542071812</v>
+        <v>2.081944235568262</v>
       </c>
       <c r="L11" t="n">
-        <v>2.4996311716064152</v>
+        <v>2.1436215195665156</v>
       </c>
       <c r="M11" t="n" s="2">
-        <v>43910.0</v>
+        <v>43912.0</v>
       </c>
     </row>
     <row r="12">
@@ -715,34 +733,34 @@
         <v>19.0</v>
       </c>
       <c r="D12" t="n">
-        <v>2.056272390603201</v>
+        <v>1.7049809945005134</v>
       </c>
       <c r="E12" t="n">
-        <v>0.07679289963433897</v>
+        <v>0.1576255487016202</v>
       </c>
       <c r="F12" t="n">
-        <v>1.9084955372081571</v>
+        <v>1.4100657357401023</v>
       </c>
       <c r="G12" t="n">
-        <v>1.931610634547617</v>
+        <v>1.4542550539796224</v>
       </c>
       <c r="H12" t="n">
-        <v>2.1841947671106006</v>
+        <v>1.9722685910184004</v>
       </c>
       <c r="I12" t="n">
-        <v>2.0553165085225813</v>
+        <v>1.7001259667424633</v>
       </c>
       <c r="J12" t="n">
-        <v>2.1841947671106006</v>
+        <v>1.9722685910184004</v>
       </c>
       <c r="K12" t="n">
-        <v>2.1841947671106006</v>
+        <v>1.9722685910184004</v>
       </c>
       <c r="L12" t="n">
-        <v>2.2094813473219235</v>
+        <v>2.027483985575115</v>
       </c>
       <c r="M12" t="n" s="2">
-        <v>43911.0</v>
+        <v>43913.0</v>
       </c>
     </row>
     <row r="13">
@@ -756,34 +774,34 @@
         <v>20.0</v>
       </c>
       <c r="D13" t="n">
-        <v>1.78650796455717</v>
+        <v>1.6439595454984366</v>
       </c>
       <c r="E13" t="n">
-        <v>0.0648461309169343</v>
+        <v>0.1447425671796759</v>
       </c>
       <c r="F13" t="n">
-        <v>1.6616557358901103</v>
+        <v>1.372525623529249</v>
       </c>
       <c r="G13" t="n">
-        <v>1.6812003876458896</v>
+        <v>1.4133412786721196</v>
       </c>
       <c r="H13" t="n">
-        <v>1.8944916501987763</v>
+        <v>1.8890618717551466</v>
       </c>
       <c r="I13" t="n">
-        <v>1.7857234373656627</v>
+        <v>1.6397135449446112</v>
       </c>
       <c r="J13" t="n">
-        <v>1.8944916501987763</v>
+        <v>1.8890618717551466</v>
       </c>
       <c r="K13" t="n">
-        <v>1.8944916501987763</v>
+        <v>1.8890618717551466</v>
       </c>
       <c r="L13" t="n">
-        <v>1.9158185223556257</v>
+        <v>1.9395207675109467</v>
       </c>
       <c r="M13" t="n" s="2">
-        <v>43912.0</v>
+        <v>43914.0</v>
       </c>
     </row>
     <row r="14">
@@ -797,34 +815,34 @@
         <v>21.0</v>
       </c>
       <c r="D14" t="n">
-        <v>1.5702163312933552</v>
+        <v>1.6242996536934504</v>
       </c>
       <c r="E14" t="n">
-        <v>0.05600776171969682</v>
+        <v>0.1353583044744542</v>
       </c>
       <c r="F14" t="n">
-        <v>1.4623473691216504</v>
+        <v>1.3698420721925926</v>
       </c>
       <c r="G14" t="n">
-        <v>1.4792414023702103</v>
+        <v>1.4082497537111445</v>
       </c>
       <c r="H14" t="n">
-        <v>1.6634625815599278</v>
+        <v>1.8531702503503815</v>
       </c>
       <c r="I14" t="n">
-        <v>1.5695504712881565</v>
+        <v>1.620541252022379</v>
       </c>
       <c r="J14" t="n">
-        <v>1.6634625815599278</v>
+        <v>1.8531702503503815</v>
       </c>
       <c r="K14" t="n">
-        <v>1.6634625815599278</v>
+        <v>1.8531702503503815</v>
       </c>
       <c r="L14" t="n">
-        <v>1.6818692601531653</v>
+        <v>1.9001140425125906</v>
       </c>
       <c r="M14" t="n" s="2">
-        <v>43913.0</v>
+        <v>43915.0</v>
       </c>
     </row>
     <row r="15">
@@ -838,34 +856,34 @@
         <v>22.0</v>
       </c>
       <c r="D15" t="n">
-        <v>1.4203422762439428</v>
+        <v>1.5488645521974407</v>
       </c>
       <c r="E15" t="n">
-        <v>0.04993657512125083</v>
+        <v>0.1248110624325585</v>
       </c>
       <c r="F15" t="n">
-        <v>1.3241417457256568</v>
+        <v>1.3139001432331838</v>
       </c>
       <c r="G15" t="n">
-        <v>1.3392140909022414</v>
+        <v>1.3494434324161524</v>
       </c>
       <c r="H15" t="n">
-        <v>1.5034665831233467</v>
+        <v>1.7597173856055017</v>
       </c>
       <c r="I15" t="n">
-        <v>1.4197570936361141</v>
+        <v>1.5455133246329635</v>
       </c>
       <c r="J15" t="n">
-        <v>1.5034665831233467</v>
+        <v>1.7597173856055017</v>
       </c>
       <c r="K15" t="n">
-        <v>1.5034665831233467</v>
+        <v>1.7597173856055017</v>
       </c>
       <c r="L15" t="n">
-        <v>1.5198682993440966</v>
+        <v>1.802872144339389</v>
       </c>
       <c r="M15" t="n" s="2">
-        <v>43914.0</v>
+        <v>43916.0</v>
       </c>
     </row>
     <row r="16">
@@ -879,34 +897,34 @@
         <v>23.0</v>
       </c>
       <c r="D16" t="n">
-        <v>1.3715515846925848</v>
+        <v>1.389662086603161</v>
       </c>
       <c r="E16" t="n">
-        <v>0.04668815891070572</v>
+        <v>0.1119821621620254</v>
       </c>
       <c r="F16" t="n">
-        <v>1.281558944665323</v>
+        <v>1.1788488619248005</v>
       </c>
       <c r="G16" t="n">
-        <v>1.2956704855313739</v>
+        <v>1.2107387785354347</v>
       </c>
       <c r="H16" t="n">
-        <v>1.4492396318631766</v>
+        <v>1.5788420817320592</v>
       </c>
       <c r="I16" t="n">
-        <v>1.3710218599474748</v>
+        <v>1.386655320205592</v>
       </c>
       <c r="J16" t="n">
-        <v>1.4492396318631766</v>
+        <v>1.5788420817320592</v>
       </c>
       <c r="K16" t="n">
-        <v>1.4492396318631766</v>
+        <v>1.5788420817320592</v>
       </c>
       <c r="L16" t="n">
-        <v>1.464554562707602</v>
+        <v>1.617561111090635</v>
       </c>
       <c r="M16" t="n" s="2">
-        <v>43915.0</v>
+        <v>43917.0</v>
       </c>
     </row>
     <row r="17">
@@ -920,34 +938,34 @@
         <v>24.0</v>
       </c>
       <c r="D17" t="n">
-        <v>1.3367545788616935</v>
+        <v>1.192453202982509</v>
       </c>
       <c r="E17" t="n">
-        <v>0.04428865504945579</v>
+        <v>0.09902784844481166</v>
       </c>
       <c r="F17" t="n">
-        <v>1.2513484620157536</v>
+        <v>1.006264804182989</v>
       </c>
       <c r="G17" t="n">
-        <v>1.2647499217303797</v>
+        <v>1.0343744372197008</v>
       </c>
       <c r="H17" t="n">
-        <v>1.410427554797143</v>
+        <v>1.3598791882029284</v>
       </c>
       <c r="I17" t="n">
-        <v>1.3362654944892016</v>
+        <v>1.1897130543893641</v>
       </c>
       <c r="J17" t="n">
-        <v>1.410427554797143</v>
+        <v>1.3598791882029284</v>
       </c>
       <c r="K17" t="n">
-        <v>1.410427554797143</v>
+        <v>1.3598791882029284</v>
       </c>
       <c r="L17" t="n">
-        <v>1.4249400833358894</v>
+        <v>1.3942122794977383</v>
       </c>
       <c r="M17" t="n" s="2">
-        <v>43916.0</v>
+        <v>43918.0</v>
       </c>
     </row>
     <row r="18">
@@ -961,34 +979,34 @@
         <v>25.0</v>
       </c>
       <c r="D18" t="n">
-        <v>1.2509011355341495</v>
+        <v>1.101309341331649</v>
       </c>
       <c r="E18" t="n">
-        <v>0.041353515928527235</v>
+        <v>0.09209611372347634</v>
       </c>
       <c r="F18" t="n">
-        <v>1.1711522596068524</v>
+        <v>0.9282056555238695</v>
       </c>
       <c r="G18" t="n">
-        <v>1.183666695247395</v>
+        <v>0.9543277541636737</v>
       </c>
       <c r="H18" t="n">
-        <v>1.3196899219893345</v>
+        <v>1.2570443956013273</v>
       </c>
       <c r="I18" t="n">
-        <v>1.2504454633703703</v>
+        <v>1.0987432532374544</v>
       </c>
       <c r="J18" t="n">
-        <v>1.3196899219893345</v>
+        <v>1.2570443956013273</v>
       </c>
       <c r="K18" t="n">
-        <v>1.3196899219893345</v>
+        <v>1.2570443956013273</v>
       </c>
       <c r="L18" t="n">
-        <v>1.3332395230522172</v>
+        <v>1.2889946019580356</v>
       </c>
       <c r="M18" t="n" s="2">
-        <v>43917.0</v>
+        <v>43919.0</v>
       </c>
     </row>
     <row r="19">
@@ -1002,34 +1020,34 @@
         <v>26.0</v>
       </c>
       <c r="D19" t="n">
-        <v>1.1711237298799646</v>
+        <v>1.1352511416356126</v>
       </c>
       <c r="E19" t="n">
-        <v>0.03880106020437446</v>
+        <v>0.09177961506993461</v>
       </c>
       <c r="F19" t="n">
-        <v>1.0962998753768038</v>
+        <v>0.9624939300279293</v>
       </c>
       <c r="G19" t="n">
-        <v>1.1080408244896873</v>
+        <v>0.9886216075359373</v>
       </c>
       <c r="H19" t="n">
-        <v>1.2356682406923771</v>
+        <v>1.2903143753985236</v>
       </c>
       <c r="I19" t="n">
-        <v>1.170695245606489</v>
+        <v>1.132778787841356</v>
       </c>
       <c r="J19" t="n">
-        <v>1.2356682406923771</v>
+        <v>1.2903143753985236</v>
       </c>
       <c r="K19" t="n">
-        <v>1.2356682406923771</v>
+        <v>1.2903143753985236</v>
       </c>
       <c r="L19" t="n">
-        <v>1.2483825914199123</v>
+        <v>1.322057372562853</v>
       </c>
       <c r="M19" t="n" s="2">
-        <v>43918.0</v>
+        <v>43920.0</v>
       </c>
     </row>
     <row r="20">
@@ -1043,34 +1061,34 @@
         <v>27.0</v>
       </c>
       <c r="D20" t="n">
-        <v>1.1146843999328195</v>
+        <v>1.0421525740494026</v>
       </c>
       <c r="E20" t="n">
-        <v>0.03697174777600202</v>
+        <v>0.08684604783745023</v>
       </c>
       <c r="F20" t="n">
-        <v>1.043389477016988</v>
+        <v>0.8788922895664805</v>
       </c>
       <c r="G20" t="n">
-        <v>1.0545763804353414</v>
+        <v>0.9035347033395876</v>
       </c>
       <c r="H20" t="n">
-        <v>1.1761866471874243</v>
+        <v>1.1889962188706544</v>
       </c>
       <c r="I20" t="n">
-        <v>1.114275668102028</v>
+        <v>1.0397411791033333</v>
       </c>
       <c r="J20" t="n">
-        <v>1.1761866471874243</v>
+        <v>1.1889962188706544</v>
       </c>
       <c r="K20" t="n">
-        <v>1.1761866471874243</v>
+        <v>1.1889962188706544</v>
       </c>
       <c r="L20" t="n">
-        <v>1.1883020798676052</v>
+        <v>1.2191154113030622</v>
       </c>
       <c r="M20" t="n" s="2">
-        <v>43919.0</v>
+        <v>43921.0</v>
       </c>
     </row>
     <row r="21">
@@ -1084,34 +1102,34 @@
         <v>28.0</v>
       </c>
       <c r="D21" t="n">
-        <v>1.1169799945153236</v>
+        <v>1.0059728689348901</v>
       </c>
       <c r="E21" t="n">
-        <v>0.036393174801479654</v>
+        <v>0.08441936785623984</v>
       </c>
       <c r="F21" t="n">
-        <v>1.0467803291317326</v>
+        <v>0.8473225601470286</v>
       </c>
       <c r="G21" t="n">
-        <v>1.0578002084033338</v>
+        <v>0.8712579563505424</v>
       </c>
       <c r="H21" t="n">
-        <v>1.1775079395256671</v>
+        <v>1.148739778038386</v>
       </c>
       <c r="I21" t="n">
-        <v>1.1165847681528347</v>
+        <v>1.0036124182832191</v>
       </c>
       <c r="J21" t="n">
-        <v>1.1775079395256671</v>
+        <v>1.148739778038386</v>
       </c>
       <c r="K21" t="n">
-        <v>1.1775079395256671</v>
+        <v>1.148739778038386</v>
       </c>
       <c r="L21" t="n">
-        <v>1.1894256686165132</v>
+        <v>1.178036227071119</v>
       </c>
       <c r="M21" t="n" s="2">
-        <v>43920.0</v>
+        <v>43922.0</v>
       </c>
     </row>
     <row r="22">
@@ -1125,34 +1143,34 @@
         <v>29.0</v>
       </c>
       <c r="D22" t="n">
-        <v>1.0623084297753282</v>
+        <v>0.9553933957955643</v>
       </c>
       <c r="E22" t="n">
-        <v>0.035042321683940794</v>
+        <v>0.08192430781671811</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9947280628112418</v>
+        <v>0.8015783136732101</v>
       </c>
       <c r="G22" t="n">
-        <v>1.0053335508434822</v>
+        <v>0.8247502307673342</v>
       </c>
       <c r="H22" t="n">
-        <v>1.12059756807854</v>
+        <v>1.0940209489454458</v>
       </c>
       <c r="I22" t="n">
-        <v>1.0619231414538048</v>
+        <v>0.9530527683834499</v>
       </c>
       <c r="J22" t="n">
-        <v>1.12059756807854</v>
+        <v>1.0940209489454458</v>
       </c>
       <c r="K22" t="n">
-        <v>1.12059756807854</v>
+        <v>1.0940209489454458</v>
       </c>
       <c r="L22" t="n">
-        <v>1.1320783284109122</v>
+        <v>1.122508830956061</v>
       </c>
       <c r="M22" t="n" s="2">
-        <v>43921.0</v>
+        <v>43923.0</v>
       </c>
     </row>
     <row r="23">
@@ -1166,34 +1184,34 @@
         <v>30.0</v>
       </c>
       <c r="D23" t="n">
-        <v>1.136151153779786</v>
+        <v>0.9212249080977765</v>
       </c>
       <c r="E23" t="n">
-        <v>0.03585661246694562</v>
+        <v>0.08048779393022192</v>
       </c>
       <c r="F23" t="n">
-        <v>1.0669513697513249</v>
+        <v>0.7702341756495712</v>
       </c>
       <c r="G23" t="n">
-        <v>1.077822592157361</v>
+        <v>0.7929510415384993</v>
       </c>
       <c r="H23" t="n">
-        <v>1.1957663360962172</v>
+        <v>1.0574913374372743</v>
       </c>
       <c r="I23" t="n">
-        <v>1.1357739678335195</v>
+        <v>0.9188818876907778</v>
       </c>
       <c r="J23" t="n">
-        <v>1.1957663360962172</v>
+        <v>1.0574913374372743</v>
       </c>
       <c r="K23" t="n">
-        <v>1.1957663360962172</v>
+        <v>1.0574913374372743</v>
       </c>
       <c r="L23" t="n">
-        <v>1.2074944274800194</v>
+        <v>1.0855295440016024</v>
       </c>
       <c r="M23" t="n" s="2">
-        <v>43922.0</v>
+        <v>43924.0</v>
       </c>
     </row>
     <row r="24">
@@ -1207,34 +1225,34 @@
         <v>31.0</v>
       </c>
       <c r="D24" t="n">
-        <v>1.1163217350602372</v>
+        <v>0.9310539352570099</v>
       </c>
       <c r="E24" t="n">
-        <v>0.035213269437041346</v>
+        <v>0.0813465600204273</v>
       </c>
       <c r="F24" t="n">
-        <v>1.0483630109826108</v>
+        <v>0.7784522042383355</v>
       </c>
       <c r="G24" t="n">
-        <v>1.0590393892879764</v>
+        <v>0.8014114481717913</v>
       </c>
       <c r="H24" t="n">
-        <v>1.1748669881320404</v>
+        <v>1.0687742619272207</v>
       </c>
       <c r="I24" t="n">
-        <v>1.1159515009349092</v>
+        <v>0.9286859159479922</v>
       </c>
       <c r="J24" t="n">
-        <v>1.1748669881320404</v>
+        <v>1.0687742619272207</v>
       </c>
       <c r="K24" t="n">
-        <v>1.1748669881320404</v>
+        <v>1.0687742619272207</v>
       </c>
       <c r="L24" t="n">
-        <v>1.1863844427077264</v>
+        <v>1.0971116226844007</v>
       </c>
       <c r="M24" t="n" s="2">
-        <v>43923.0</v>
+        <v>43925.0</v>
       </c>
     </row>
     <row r="25">
@@ -1248,34 +1266,34 @@
         <v>32.0</v>
       </c>
       <c r="D25" t="n">
-        <v>1.0909035879306326</v>
+        <v>0.931696291058674</v>
       </c>
       <c r="E25" t="n">
-        <v>0.03437728976806267</v>
+        <v>0.08203128438828318</v>
       </c>
       <c r="F25" t="n">
-        <v>1.0245572041838833</v>
+        <v>0.7778640516591783</v>
       </c>
       <c r="G25" t="n">
-        <v>1.03498052639192</v>
+        <v>0.8009958827421706</v>
       </c>
       <c r="H25" t="n">
-        <v>1.1480583499207588</v>
+        <v>1.0706053833952451</v>
       </c>
       <c r="I25" t="n">
-        <v>1.0905425024066693</v>
+        <v>0.9292899161702743</v>
       </c>
       <c r="J25" t="n">
-        <v>1.1480583499207588</v>
+        <v>1.0706053833952451</v>
       </c>
       <c r="K25" t="n">
-        <v>1.1480583499207588</v>
+        <v>1.0706053833952451</v>
       </c>
       <c r="L25" t="n">
-        <v>1.1593019652045937</v>
+        <v>1.0992024167926464</v>
       </c>
       <c r="M25" t="n" s="2">
-        <v>43924.0</v>
+        <v>43926.0</v>
       </c>
     </row>
     <row r="26">
@@ -1289,34 +1307,34 @@
         <v>33.0</v>
       </c>
       <c r="D26" t="n">
-        <v>1.0909154757941835</v>
+        <v>1.0275531664075725</v>
       </c>
       <c r="E26" t="n">
-        <v>0.033991669101103045</v>
+        <v>0.08684409305491193</v>
       </c>
       <c r="F26" t="n">
-        <v>1.0253018011853514</v>
+        <v>0.8643965955739636</v>
       </c>
       <c r="G26" t="n">
-        <v>1.0356127360840321</v>
+        <v>0.8890000888024496</v>
       </c>
       <c r="H26" t="n">
-        <v>1.1474224265325907</v>
+        <v>1.1744484237748811</v>
       </c>
       <c r="I26" t="n">
-        <v>1.0905624490337884</v>
+        <v>1.0251076495305733</v>
       </c>
       <c r="J26" t="n">
-        <v>1.1474224265325907</v>
+        <v>1.1744484237748811</v>
       </c>
       <c r="K26" t="n">
-        <v>1.1474224265325907</v>
+        <v>1.1744484237748811</v>
       </c>
       <c r="L26" t="n">
-        <v>1.1585353477783964</v>
+        <v>1.2046061500239795</v>
       </c>
       <c r="M26" t="n" s="2">
-        <v>43925.0</v>
+        <v>43927.0</v>
       </c>
     </row>
     <row r="27">
@@ -1330,34 +1348,34 @@
         <v>34.0</v>
       </c>
       <c r="D27" t="n">
-        <v>1.058643341337375</v>
+        <v>1.0236743827466162</v>
       </c>
       <c r="E27" t="n">
-        <v>0.033163669484217985</v>
+        <v>0.08714095036834879</v>
       </c>
       <c r="F27" t="n">
-        <v>0.994633270682185</v>
+        <v>0.8600119311564948</v>
       </c>
       <c r="G27" t="n">
-        <v>1.0046909454643618</v>
+        <v>0.8846796560911414</v>
       </c>
       <c r="H27" t="n">
-        <v>1.1137769386350032</v>
+        <v>1.1711001965923014</v>
       </c>
       <c r="I27" t="n">
-        <v>1.0582970600960968</v>
+        <v>1.0212028039108039</v>
       </c>
       <c r="J27" t="n">
-        <v>1.1137769386350032</v>
+        <v>1.1711001965923014</v>
       </c>
       <c r="K27" t="n">
-        <v>1.1137769386350032</v>
+        <v>1.1711001965923014</v>
       </c>
       <c r="L27" t="n">
-        <v>1.1246212753480747</v>
+        <v>1.2013813231951067</v>
       </c>
       <c r="M27" t="n" s="2">
-        <v>43926.0</v>
+        <v>43928.0</v>
       </c>
     </row>
     <row r="28">
@@ -1371,34 +1389,34 @@
         <v>35.0</v>
       </c>
       <c r="D28" t="n">
-        <v>1.113379708129683</v>
+        <v>1.0149446238390625</v>
       </c>
       <c r="E28" t="n">
-        <v>0.03372329897880254</v>
+        <v>0.08671257115353605</v>
       </c>
       <c r="F28" t="n">
-        <v>1.0482559808530583</v>
+        <v>0.8521129420049608</v>
       </c>
       <c r="G28" t="n">
-        <v>1.058496567659691</v>
+        <v>0.876649354799913</v>
       </c>
       <c r="H28" t="n">
-        <v>1.1694242083809367</v>
+        <v>1.1616600726154782</v>
       </c>
       <c r="I28" t="n">
-        <v>1.1130392435555156</v>
+        <v>1.0124762432075223</v>
       </c>
       <c r="J28" t="n">
-        <v>1.1694242083809367</v>
+        <v>1.1616600726154782</v>
       </c>
       <c r="K28" t="n">
-        <v>1.1694242083809367</v>
+        <v>1.1616600726154782</v>
       </c>
       <c r="L28" t="n">
-        <v>1.1804382450963222</v>
+        <v>1.191802611638226</v>
       </c>
       <c r="M28" t="n" s="2">
-        <v>43927.0</v>
+        <v>43929.0</v>
       </c>
     </row>
     <row r="29">
@@ -1412,34 +1430,34 @@
         <v>36.0</v>
       </c>
       <c r="D29" t="n">
-        <v>1.1007108320129053</v>
+        <v>1.0566129663579071</v>
       </c>
       <c r="E29" t="n">
-        <v>0.03326336495511964</v>
+        <v>0.0883584150786691</v>
       </c>
       <c r="F29" t="n">
-        <v>1.0364730876708836</v>
+        <v>0.8905346520418885</v>
       </c>
       <c r="G29" t="n">
-        <v>1.0465748769414898</v>
+        <v>0.9155965915855263</v>
       </c>
       <c r="H29" t="n">
-        <v>1.1559896896239858</v>
+        <v>1.206027550873123</v>
       </c>
       <c r="I29" t="n">
-        <v>1.1003757783618147</v>
+        <v>1.0541510223323853</v>
       </c>
       <c r="J29" t="n">
-        <v>1.1559896896239858</v>
+        <v>1.206027550873123</v>
       </c>
       <c r="K29" t="n">
-        <v>1.1559896896239858</v>
+        <v>1.206027550873123</v>
       </c>
       <c r="L29" t="n">
-        <v>1.1668526366723369</v>
+        <v>1.2366810657824665</v>
       </c>
       <c r="M29" t="n" s="2">
-        <v>43928.0</v>
+        <v>43930.0</v>
       </c>
     </row>
     <row r="30">
@@ -1453,34 +1471,34 @@
         <v>37.0</v>
       </c>
       <c r="D30" t="n">
-        <v>1.1318177629001973</v>
+        <v>0.9933497329448011</v>
       </c>
       <c r="E30" t="n">
-        <v>0.03337548499457293</v>
+        <v>0.0854939327256622</v>
       </c>
       <c r="F30" t="n">
-        <v>1.0673401237257845</v>
+        <v>0.8328590114366077</v>
       </c>
       <c r="G30" t="n">
-        <v>1.0774851691910343</v>
+        <v>0.8570304557049786</v>
       </c>
       <c r="H30" t="n">
-        <v>1.1872693557891068</v>
+        <v>1.138032074505758</v>
       </c>
       <c r="I30" t="n">
-        <v>1.131489716690907</v>
+        <v>0.9908980971060376</v>
       </c>
       <c r="J30" t="n">
-        <v>1.1872693557891068</v>
+        <v>1.138032074505758</v>
       </c>
       <c r="K30" t="n">
-        <v>1.1872693557891068</v>
+        <v>1.138032074505758</v>
       </c>
       <c r="L30" t="n">
-        <v>1.1981596411671538</v>
+        <v>1.1677715907921766</v>
       </c>
       <c r="M30" t="n" s="2">
-        <v>43929.0</v>
+        <v>43931.0</v>
       </c>
     </row>
     <row r="31">
@@ -1494,34 +1512,34 @@
         <v>38.0</v>
       </c>
       <c r="D31" t="n">
-        <v>1.0548113113130928</v>
+        <v>0.987720463887538</v>
       </c>
       <c r="E31" t="n">
-        <v>0.031861740872940726</v>
+        <v>0.08500944238543776</v>
       </c>
       <c r="F31" t="n">
-        <v>0.9932799431368554</v>
+        <v>0.8281392362087591</v>
       </c>
       <c r="G31" t="n">
-        <v>1.002956237259004</v>
+        <v>0.8521737019701888</v>
       </c>
       <c r="H31" t="n">
-        <v>1.1077606297360334</v>
+        <v>1.1315828970099362</v>
       </c>
       <c r="I31" t="n">
-        <v>1.054490522304555</v>
+        <v>0.9852827213607764</v>
       </c>
       <c r="J31" t="n">
-        <v>1.1077606297360334</v>
+        <v>1.1315828970099362</v>
       </c>
       <c r="K31" t="n">
-        <v>1.1077606297360334</v>
+        <v>1.1315828970099362</v>
       </c>
       <c r="L31" t="n">
-        <v>1.1181656759732295</v>
+        <v>1.1611538807712463</v>
       </c>
       <c r="M31" t="n" s="2">
-        <v>43930.0</v>
+        <v>43932.0</v>
       </c>
     </row>
     <row r="32">
@@ -1535,34 +1553,34 @@
         <v>39.0</v>
       </c>
       <c r="D32" t="n">
-        <v>1.0934352756116823</v>
+        <v>1.0038109511883555</v>
       </c>
       <c r="E32" t="n">
-        <v>0.03209053598069046</v>
+        <v>0.08576135730477173</v>
       </c>
       <c r="F32" t="n">
-        <v>1.0314357109706065</v>
+        <v>0.842765489607185</v>
       </c>
       <c r="G32" t="n">
-        <v>1.041191868939481</v>
+        <v>0.8670327444779854</v>
       </c>
       <c r="H32" t="n">
-        <v>1.1467494916409904</v>
+        <v>1.1489169705031919</v>
       </c>
       <c r="I32" t="n">
-        <v>1.0931213567350213</v>
+        <v>1.0013696480360033</v>
       </c>
       <c r="J32" t="n">
-        <v>1.1467494916409904</v>
+        <v>1.1489169705031919</v>
       </c>
       <c r="K32" t="n">
-        <v>1.1467494916409904</v>
+        <v>1.1489169705031919</v>
       </c>
       <c r="L32" t="n">
-        <v>1.1572187959461038</v>
+        <v>1.1787288538877327</v>
       </c>
       <c r="M32" t="n" s="2">
-        <v>43931.0</v>
+        <v>43933.0</v>
       </c>
     </row>
     <row r="33">
@@ -1576,34 +1594,34 @@
         <v>40.0</v>
       </c>
       <c r="D33" t="n">
-        <v>1.0972463607996308</v>
+        <v>1.1313359985471276</v>
       </c>
       <c r="E33" t="n">
-        <v>0.03190154942468653</v>
+        <v>0.09116565276578598</v>
       </c>
       <c r="F33" t="n">
-        <v>1.0356035513675044</v>
+        <v>0.9597111176874827</v>
       </c>
       <c r="G33" t="n">
-        <v>1.0453055522166965</v>
+        <v>0.9856729763292944</v>
       </c>
       <c r="H33" t="n">
-        <v>1.1502417288561548</v>
+        <v>1.285349078962562</v>
       </c>
       <c r="I33" t="n">
-        <v>1.0969372057192759</v>
+        <v>1.128888163855813</v>
       </c>
       <c r="J33" t="n">
-        <v>1.1502417288561548</v>
+        <v>1.285349078962562</v>
       </c>
       <c r="K33" t="n">
-        <v>1.1502417288561548</v>
+        <v>1.285349078962562</v>
       </c>
       <c r="L33" t="n">
-        <v>1.1606460543138164</v>
+        <v>1.3168705777243461</v>
       </c>
       <c r="M33" t="n" s="2">
-        <v>43932.0</v>
+        <v>43934.0</v>
       </c>
     </row>
     <row r="34">
@@ -1617,34 +1635,34 @@
         <v>41.0</v>
       </c>
       <c r="D34" t="n">
-        <v>1.108909272301182</v>
+        <v>1.124333042503825</v>
       </c>
       <c r="E34" t="n">
-        <v>0.0317740350849441</v>
+        <v>0.09060133848621062</v>
       </c>
       <c r="F34" t="n">
-        <v>1.0475000629672557</v>
+        <v>0.9537705175650918</v>
       </c>
       <c r="G34" t="n">
-        <v>1.057168326074399</v>
+        <v>0.9795716726183105</v>
       </c>
       <c r="H34" t="n">
-        <v>1.1616853630076829</v>
+        <v>1.2773927838284604</v>
       </c>
       <c r="I34" t="n">
-        <v>1.108605808890002</v>
+        <v>1.1219003598794177</v>
       </c>
       <c r="J34" t="n">
-        <v>1.1616853630076829</v>
+        <v>1.2773927838284604</v>
       </c>
       <c r="K34" t="n">
-        <v>1.1616853630076829</v>
+        <v>1.2773927838284604</v>
       </c>
       <c r="L34" t="n">
-        <v>1.1720430213055482</v>
+        <v>1.3087191648970649</v>
       </c>
       <c r="M34" t="n" s="2">
-        <v>43933.0</v>
+        <v>43935.0</v>
       </c>
     </row>
     <row r="35">
@@ -1658,34 +1676,34 @@
         <v>42.0</v>
       </c>
       <c r="D35" t="n">
-        <v>1.1392764111997606</v>
+        <v>1.1645069843712021</v>
       </c>
       <c r="E35" t="n">
-        <v>0.031881126369245706</v>
+        <v>0.0912112264592707</v>
       </c>
       <c r="F35" t="n">
-        <v>1.077639799738974</v>
+        <v>0.9925960456120083</v>
       </c>
       <c r="G35" t="n">
-        <v>1.087348702331683</v>
+        <v>1.0186478568428052</v>
       </c>
       <c r="H35" t="n">
-        <v>1.1922184782653569</v>
+        <v>1.3184865895569946</v>
       </c>
       <c r="I35" t="n">
-        <v>1.1389790414456766</v>
+        <v>1.1621264472040014</v>
       </c>
       <c r="J35" t="n">
-        <v>1.1922184782653569</v>
+        <v>1.3184865895569946</v>
       </c>
       <c r="K35" t="n">
-        <v>1.1922184782653569</v>
+        <v>1.3184865895569946</v>
       </c>
       <c r="L35" t="n">
-        <v>1.2026029337498303</v>
+        <v>1.349945268238756</v>
       </c>
       <c r="M35" t="n" s="2">
-        <v>43934.0</v>
+        <v>43936.0</v>
       </c>
     </row>
     <row r="36">
@@ -1699,34 +1717,34 @@
         <v>43.0</v>
       </c>
       <c r="D36" t="n">
-        <v>1.1163145097198028</v>
+        <v>1.1139149793840153</v>
       </c>
       <c r="E36" t="n">
-        <v>0.031189757979485238</v>
+        <v>0.08806271136582482</v>
       </c>
       <c r="F36" t="n">
-        <v>1.056013234184098</v>
+        <v>0.9480008435899667</v>
       </c>
       <c r="G36" t="n">
-        <v>1.0655121056550356</v>
+        <v>0.9731292959844453</v>
       </c>
       <c r="H36" t="n">
-        <v>1.1681077243581688</v>
+        <v>1.2626139408772614</v>
       </c>
       <c r="I36" t="n">
-        <v>1.1160240431951818</v>
+        <v>1.1115951846415262</v>
       </c>
       <c r="J36" t="n">
-        <v>1.1681077243581688</v>
+        <v>1.2626139408772614</v>
       </c>
       <c r="K36" t="n">
-        <v>1.1681077243581688</v>
+        <v>1.2626139408772614</v>
       </c>
       <c r="L36" t="n">
-        <v>1.1782664662997684</v>
+        <v>1.2930112736612345</v>
       </c>
       <c r="M36" t="n" s="2">
-        <v>43935.0</v>
+        <v>43937.0</v>
       </c>
     </row>
     <row r="37">
@@ -1740,34 +1758,34 @@
         <v>44.0</v>
       </c>
       <c r="D37" t="n">
-        <v>1.1393746388886246</v>
+        <v>1.0018179543383754</v>
       </c>
       <c r="E37" t="n">
-        <v>0.031102141325625523</v>
+        <v>0.08234892857877678</v>
       </c>
       <c r="F37" t="n">
-        <v>1.0792236483300273</v>
+        <v>0.8469207660400901</v>
       </c>
       <c r="G37" t="n">
-        <v>1.0887033725580153</v>
+        <v>0.8703220325713591</v>
       </c>
       <c r="H37" t="n">
-        <v>1.1910112180058847</v>
+        <v>1.1410076513406153</v>
       </c>
       <c r="I37" t="n">
-        <v>1.1390916472558987</v>
+        <v>0.999562513266423</v>
       </c>
       <c r="J37" t="n">
-        <v>1.1910112180058847</v>
+        <v>1.1410076513406153</v>
       </c>
       <c r="K37" t="n">
-        <v>1.1910112180058847</v>
+        <v>1.1410076513406153</v>
       </c>
       <c r="L37" t="n">
-        <v>1.2011338324374725</v>
+        <v>1.1695315309574366</v>
       </c>
       <c r="M37" t="n" s="2">
-        <v>43936.0</v>
+        <v>43938.0</v>
       </c>
     </row>
     <row r="38">
@@ -1781,34 +1799,34 @@
         <v>45.0</v>
       </c>
       <c r="D38" t="n">
-        <v>1.1349065137469774</v>
+        <v>1.0581807009697886</v>
       </c>
       <c r="E38" t="n">
-        <v>0.03065076802558492</v>
+        <v>0.08391918828804282</v>
       </c>
       <c r="F38" t="n">
-        <v>1.0756199632643986</v>
+        <v>0.9000934186800515</v>
       </c>
       <c r="G38" t="n">
-        <v>1.0849654679594058</v>
+        <v>0.924031736607266</v>
       </c>
       <c r="H38" t="n">
-        <v>1.185788748941635</v>
+        <v>1.1998942685124065</v>
       </c>
       <c r="I38" t="n">
-        <v>1.1346305941150339</v>
+        <v>1.0559631214912952</v>
       </c>
       <c r="J38" t="n">
-        <v>1.185788748941635</v>
+        <v>1.1998942685124065</v>
       </c>
       <c r="K38" t="n">
-        <v>1.185788748941635</v>
+        <v>1.1998942685124065</v>
       </c>
       <c r="L38" t="n">
-        <v>1.1957610783130188</v>
+        <v>1.2288693005240385</v>
       </c>
       <c r="M38" t="n" s="2">
-        <v>43937.0</v>
+        <v>43939.0</v>
       </c>
     </row>
     <row r="39">
@@ -1822,34 +1840,34 @@
         <v>46.0</v>
       </c>
       <c r="D39" t="n">
-        <v>1.1291684766334384</v>
+        <v>1.065321028210747</v>
       </c>
       <c r="E39" t="n">
-        <v>0.030156764081131004</v>
+        <v>0.08395905883182282</v>
       </c>
       <c r="F39" t="n">
-        <v>1.0708287997615251</v>
+        <v>0.907118272372266</v>
       </c>
       <c r="G39" t="n">
-        <v>1.0800270971625079</v>
+        <v>0.9310834816725555</v>
       </c>
       <c r="H39" t="n">
-        <v>1.179225582024708</v>
+        <v>1.207079649530041</v>
       </c>
       <c r="I39" t="n">
-        <v>1.1289000218695546</v>
+        <v>1.0631162082812795</v>
       </c>
       <c r="J39" t="n">
-        <v>1.179225582024708</v>
+        <v>1.207079649530041</v>
       </c>
       <c r="K39" t="n">
-        <v>1.179225582024708</v>
+        <v>1.207079649530041</v>
       </c>
       <c r="L39" t="n">
-        <v>1.1890337460608247</v>
+        <v>1.2360526080593615</v>
       </c>
       <c r="M39" t="n" s="2">
-        <v>43938.0</v>
+        <v>43940.0</v>
       </c>
     </row>
     <row r="40">
@@ -1863,34 +1881,34 @@
         <v>47.0</v>
       </c>
       <c r="D40" t="n">
-        <v>1.1210040800307375</v>
+        <v>1.2114721742593086</v>
       </c>
       <c r="E40" t="n">
-        <v>0.02964416176728576</v>
+        <v>0.08906920567752213</v>
       </c>
       <c r="F40" t="n">
-        <v>1.063648608701347</v>
+        <v>1.0431824552325466</v>
       </c>
       <c r="G40" t="n">
-        <v>1.0726934928248668</v>
+        <v>1.0687826267632896</v>
       </c>
       <c r="H40" t="n">
-        <v>1.170205972066005</v>
+        <v>1.361605372976149</v>
       </c>
       <c r="I40" t="n">
-        <v>1.1207427845496851</v>
+        <v>1.2092900420990618</v>
       </c>
       <c r="J40" t="n">
-        <v>1.170205972066005</v>
+        <v>1.361605372976149</v>
       </c>
       <c r="K40" t="n">
-        <v>1.170205972066005</v>
+        <v>1.361605372976149</v>
       </c>
       <c r="L40" t="n">
-        <v>1.1798444589300823</v>
+        <v>1.3921619215887093</v>
       </c>
       <c r="M40" t="n" s="2">
-        <v>43939.0</v>
+        <v>43941.0</v>
       </c>
     </row>
     <row r="41">
@@ -1904,34 +1922,34 @@
         <v>48.0</v>
       </c>
       <c r="D41" t="n">
-        <v>1.1320770445516761</v>
+        <v>1.1358656868983403</v>
       </c>
       <c r="E41" t="n">
-        <v>0.02940707860015086</v>
+        <v>0.08537689319018424</v>
       </c>
       <c r="F41" t="n">
-        <v>1.0751671218321377</v>
+        <v>0.9746886134989595</v>
       </c>
       <c r="G41" t="n">
-        <v>1.0841448615790028</v>
+        <v>0.999175024764384</v>
       </c>
       <c r="H41" t="n">
-        <v>1.1808777547982854</v>
+        <v>1.2798507939608055</v>
       </c>
       <c r="I41" t="n">
-        <v>1.1318224265206007</v>
+        <v>1.13372729779009</v>
       </c>
       <c r="J41" t="n">
-        <v>1.1808777547982854</v>
+        <v>1.2798507939608055</v>
       </c>
       <c r="K41" t="n">
-        <v>1.1808777547982854</v>
+        <v>1.2798507939608055</v>
       </c>
       <c r="L41" t="n">
-        <v>1.190433928227417</v>
+        <v>1.309194179770665</v>
       </c>
       <c r="M41" t="n" s="2">
-        <v>43940.0</v>
+        <v>43942.0</v>
       </c>
     </row>
     <row r="42">
@@ -1945,34 +1963,34 @@
         <v>49.0</v>
       </c>
       <c r="D42" t="n">
-        <v>1.207162989272357</v>
+        <v>1.1293338930267733</v>
       </c>
       <c r="E42" t="n">
-        <v>0.029982953029073008</v>
+        <v>0.08371179764883169</v>
       </c>
       <c r="F42" t="n">
-        <v>1.1491059775064096</v>
+        <v>0.9712156739781862</v>
       </c>
       <c r="G42" t="n">
-        <v>1.1582724095066814</v>
+        <v>0.9952571109387373</v>
       </c>
       <c r="H42" t="n">
-        <v>1.2569002892693717</v>
+        <v>1.2704639883730537</v>
       </c>
       <c r="I42" t="n">
-        <v>1.2069147641337994</v>
+        <v>1.1272661907491601</v>
       </c>
       <c r="J42" t="n">
-        <v>1.2569002892693717</v>
+        <v>1.2704639883730537</v>
       </c>
       <c r="K42" t="n">
-        <v>1.2569002892693717</v>
+        <v>1.2704639883730537</v>
       </c>
       <c r="L42" t="n">
-        <v>1.2666306330549741</v>
+        <v>1.2992018760133264</v>
       </c>
       <c r="M42" t="n" s="2">
-        <v>43941.0</v>
+        <v>43943.0</v>
       </c>
     </row>
     <row r="43">
@@ -1986,34 +2004,34 @@
         <v>50.0</v>
       </c>
       <c r="D43" t="n">
-        <v>1.18873337734073</v>
+        <v>1.080678578029472</v>
       </c>
       <c r="E43" t="n">
-        <v>0.029300129617940734</v>
+        <v>0.08077370932044886</v>
       </c>
       <c r="F43" t="n">
-        <v>1.1319932387010136</v>
+        <v>0.9281584824993313</v>
       </c>
       <c r="G43" t="n">
-        <v>1.1409530104797452</v>
+        <v>0.9513374158748374</v>
       </c>
       <c r="H43" t="n">
-        <v>1.2373348741388808</v>
+        <v>1.2168822588258035</v>
       </c>
       <c r="I43" t="n">
-        <v>1.1884926542603145</v>
+        <v>1.0786668087903022</v>
       </c>
       <c r="J43" t="n">
-        <v>1.2373348741388808</v>
+        <v>1.2168822588258035</v>
       </c>
       <c r="K43" t="n">
-        <v>1.2373348741388808</v>
+        <v>1.2168822588258035</v>
       </c>
       <c r="L43" t="n">
-        <v>1.2468415149131677</v>
+        <v>1.2446305834047988</v>
       </c>
       <c r="M43" t="n" s="2">
-        <v>43942.0</v>
+        <v>43944.0</v>
       </c>
     </row>
     <row r="44">
@@ -2027,34 +2045,34 @@
         <v>51.0</v>
       </c>
       <c r="D44" t="n">
-        <v>1.1673933691346774</v>
+        <v>1.1446589804927894</v>
       </c>
       <c r="E44" t="n">
-        <v>0.028481481852454138</v>
+        <v>0.08218172538798604</v>
       </c>
       <c r="F44" t="n">
-        <v>1.11223173207017</v>
+        <v>0.9892449444622732</v>
       </c>
       <c r="G44" t="n">
-        <v>1.120943861685383</v>
+        <v>1.0129186328406212</v>
       </c>
       <c r="H44" t="n">
-        <v>1.2146329464346548</v>
+        <v>1.2831062710028684</v>
       </c>
       <c r="I44" t="n">
-        <v>1.1671617516381914</v>
+        <v>1.1426928143853017</v>
       </c>
       <c r="J44" t="n">
-        <v>1.2146329464346548</v>
+        <v>1.2831062710028684</v>
       </c>
       <c r="K44" t="n">
-        <v>1.2146329464346548</v>
+        <v>1.2831062710028684</v>
       </c>
       <c r="L44" t="n">
-        <v>1.223871259450477</v>
+        <v>1.3112458471262147</v>
       </c>
       <c r="M44" t="n" s="2">
-        <v>43943.0</v>
+        <v>43945.0</v>
       </c>
     </row>
     <row r="45">
@@ -2068,34 +2086,34 @@
         <v>52.0</v>
       </c>
       <c r="D45" t="n">
-        <v>1.1802232542094577</v>
+        <v>1.1965023176963028</v>
       </c>
       <c r="E45" t="n">
-        <v>0.028116497249487803</v>
+        <v>0.08316265989745884</v>
       </c>
       <c r="F45" t="n">
-        <v>1.125753072250075</v>
+        <v>1.0390483512107365</v>
       </c>
       <c r="G45" t="n">
-        <v>1.1343596534619411</v>
+        <v>1.0630759879088434</v>
       </c>
       <c r="H45" t="n">
-        <v>1.226848436592298</v>
+        <v>1.3364991872760632</v>
       </c>
       <c r="I45" t="n">
-        <v>1.1799999883084107</v>
+        <v>1.194576135437541</v>
       </c>
       <c r="J45" t="n">
-        <v>1.226848436592298</v>
+        <v>1.3364991872760632</v>
       </c>
       <c r="K45" t="n">
-        <v>1.226848436592298</v>
+        <v>1.3364991872760632</v>
       </c>
       <c r="L45" t="n">
-        <v>1.235962228792709</v>
+        <v>1.3649019496629708</v>
       </c>
       <c r="M45" t="n" s="2">
-        <v>43944.0</v>
+        <v>43946.0</v>
       </c>
     </row>
     <row r="46">
@@ -2109,34 +2127,34 @@
         <v>53.0</v>
       </c>
       <c r="D46" t="n">
-        <v>1.20771778853022</v>
+        <v>1.211671889363538</v>
       </c>
       <c r="E46" t="n">
-        <v>0.027950739596504497</v>
+        <v>0.08244382957263056</v>
       </c>
       <c r="F46" t="n">
-        <v>1.1535505867899758</v>
+        <v>1.055461896958737</v>
       </c>
       <c r="G46" t="n">
-        <v>1.1621135983593613</v>
+        <v>1.0793270597164064</v>
       </c>
       <c r="H46" t="n">
-        <v>1.2540574743276842</v>
+        <v>1.3503933880737633</v>
       </c>
       <c r="I46" t="n">
-        <v>1.207502169989311</v>
+        <v>1.2098025391984024</v>
       </c>
       <c r="J46" t="n">
-        <v>1.2540574743276842</v>
+        <v>1.3503933880737633</v>
       </c>
       <c r="K46" t="n">
-        <v>1.2540574743276842</v>
+        <v>1.3503933880737633</v>
       </c>
       <c r="L46" t="n">
-        <v>1.2631103243828938</v>
+        <v>1.378504622027818</v>
       </c>
       <c r="M46" t="n" s="2">
-        <v>43945.0</v>
+        <v>43947.0</v>
       </c>
     </row>
     <row r="47">
@@ -2150,34 +2168,34 @@
         <v>54.0</v>
       </c>
       <c r="D47" t="n">
-        <v>1.2461891673584538</v>
+        <v>1.2205875922748295</v>
       </c>
       <c r="E47" t="n">
-        <v>0.027865636910373647</v>
+        <v>0.08119227889571727</v>
       </c>
       <c r="F47" t="n">
-        <v>1.192166062928184</v>
+        <v>1.066629155690083</v>
       </c>
       <c r="G47" t="n">
-        <v>1.2007112358734315</v>
+        <v>1.0901783619898557</v>
       </c>
       <c r="H47" t="n">
-        <v>1.2923755562784867</v>
+        <v>1.357136250952207</v>
       </c>
       <c r="I47" t="n">
-        <v>1.245981475319038</v>
+        <v>1.2187877884018574</v>
       </c>
       <c r="J47" t="n">
-        <v>1.2923755562784867</v>
+        <v>1.357136250952207</v>
       </c>
       <c r="K47" t="n">
-        <v>1.2923755562784867</v>
+        <v>1.357136250952207</v>
       </c>
       <c r="L47" t="n">
-        <v>1.301392561082615</v>
+        <v>1.384773593014117</v>
       </c>
       <c r="M47" t="n" s="2">
-        <v>43946.0</v>
+        <v>43948.0</v>
       </c>
     </row>
     <row r="48">
@@ -2191,34 +2209,34 @@
         <v>55.0</v>
       </c>
       <c r="D48" t="n">
-        <v>1.2559563919093106</v>
+        <v>1.1038581150572215</v>
       </c>
       <c r="E48" t="n">
-        <v>0.027381150526812854</v>
+        <v>0.07563511176887086</v>
       </c>
       <c r="F48" t="n">
-        <v>1.2028579324305027</v>
+        <v>0.9605839216362184</v>
       </c>
       <c r="G48" t="n">
-        <v>1.2112603194511231</v>
+        <v>0.9824646176524463</v>
       </c>
       <c r="H48" t="n">
-        <v>1.3013311820937732</v>
+        <v>1.2311426896228084</v>
       </c>
       <c r="I48" t="n">
-        <v>1.2557574183649984</v>
+        <v>1.1021311189987728</v>
       </c>
       <c r="J48" t="n">
-        <v>1.3013311820937732</v>
+        <v>1.2311426896228084</v>
       </c>
       <c r="K48" t="n">
-        <v>1.3013311820937732</v>
+        <v>1.2311426896228084</v>
       </c>
       <c r="L48" t="n">
-        <v>1.3101855948589465</v>
+        <v>1.2569461013804295</v>
       </c>
       <c r="M48" t="n" s="2">
-        <v>43947.0</v>
+        <v>43949.0</v>
       </c>
     </row>
     <row r="49">
@@ -2232,34 +2250,34 @@
         <v>56.0</v>
       </c>
       <c r="D49" t="n">
-        <v>1.2701649266624897</v>
+        <v>1.0693537571938407</v>
       </c>
       <c r="E49" t="n">
-        <v>0.026879163855765675</v>
+        <v>0.07309951794286583</v>
       </c>
       <c r="F49" t="n">
-        <v>1.218023541219059</v>
+        <v>0.9308713311568464</v>
       </c>
       <c r="G49" t="n">
-        <v>1.2262783703200744</v>
+        <v>0.952022888899615</v>
       </c>
       <c r="H49" t="n">
-        <v>1.3146982270001264</v>
+        <v>1.1923648984168853</v>
       </c>
       <c r="I49" t="n">
-        <v>1.2699753265410434</v>
+        <v>1.0676885591650733</v>
       </c>
       <c r="J49" t="n">
-        <v>1.3146982270001264</v>
+        <v>1.1923648984168853</v>
       </c>
       <c r="K49" t="n">
-        <v>1.3146982270001264</v>
+        <v>1.1923648984168853</v>
       </c>
       <c r="L49" t="n">
-        <v>1.3233837878807349</v>
+        <v>1.2172988065320556</v>
       </c>
       <c r="M49" t="n" s="2">
-        <v>43948.0</v>
+        <v>43950.0</v>
       </c>
     </row>
     <row r="50">
@@ -2273,34 +2291,34 @@
         <v>57.0</v>
       </c>
       <c r="D50" t="n">
-        <v>1.2336775088838865</v>
+        <v>1.046716602792332</v>
       </c>
       <c r="E50" t="n">
-        <v>0.025825207945657246</v>
+        <v>0.07155207392519025</v>
       </c>
       <c r="F50" t="n">
-        <v>1.1835750038183417</v>
+        <v>0.9111657118427733</v>
       </c>
       <c r="G50" t="n">
-        <v>1.1915083811119673</v>
+        <v>0.9318695121664144</v>
       </c>
       <c r="H50" t="n">
-        <v>1.2764613140548504</v>
+        <v>1.1671237206243903</v>
       </c>
       <c r="I50" t="n">
-        <v>1.2334973094291002</v>
+        <v>1.0450866553479785</v>
       </c>
       <c r="J50" t="n">
-        <v>1.2764613140548504</v>
+        <v>1.1671237206243903</v>
       </c>
       <c r="K50" t="n">
-        <v>1.2764613140548504</v>
+        <v>1.1671237206243903</v>
       </c>
       <c r="L50" t="n">
-        <v>1.2848040669368108</v>
+        <v>1.1915298027287207</v>
       </c>
       <c r="M50" t="n" s="2">
-        <v>43949.0</v>
+        <v>43951.0</v>
       </c>
     </row>
     <row r="51">
@@ -2314,34 +2332,34 @@
         <v>58.0</v>
       </c>
       <c r="D51" t="n">
-        <v>1.2260746541044727</v>
+        <v>1.1288800840652025</v>
       </c>
       <c r="E51" t="n">
-        <v>0.025100460830030265</v>
+        <v>0.07379719970711193</v>
       </c>
       <c r="F51" t="n">
-        <v>1.1773671549552214</v>
+        <v>0.9888623350872087</v>
       </c>
       <c r="G51" t="n">
-        <v>1.1850822655237205</v>
+        <v>1.0102983895249178</v>
       </c>
       <c r="H51" t="n">
-        <v>1.267651305385811</v>
+        <v>1.2529458480561324</v>
       </c>
       <c r="I51" t="n">
-        <v>1.225903371036805</v>
+        <v>1.1272724006535597</v>
       </c>
       <c r="J51" t="n">
-        <v>1.267651305385811</v>
+        <v>1.2529458480561324</v>
       </c>
       <c r="K51" t="n">
-        <v>1.267651305385811</v>
+        <v>1.2529458480561324</v>
       </c>
       <c r="L51" t="n">
-        <v>1.275755535663246</v>
+        <v>1.2780336711348932</v>
       </c>
       <c r="M51" t="n" s="2">
-        <v>43950.0</v>
+        <v>43952.0</v>
       </c>
     </row>
     <row r="52">
@@ -2355,34 +2373,280 @@
         <v>59.0</v>
       </c>
       <c r="D52" t="n">
-        <v>1.2604835605429838</v>
+        <v>1.1601423598074239</v>
       </c>
       <c r="E52" t="n">
-        <v>0.02486397865178749</v>
+        <v>0.07427050401386487</v>
       </c>
       <c r="F52" t="n">
-        <v>1.2122172495573218</v>
+        <v>1.0191292286772544</v>
       </c>
       <c r="G52" t="n">
-        <v>1.219866681397788</v>
+        <v>1.0407404656065422</v>
       </c>
       <c r="H52" t="n">
-        <v>1.3016580957840245</v>
+        <v>1.2849492649570768</v>
       </c>
       <c r="I52" t="n">
-        <v>1.2603200774700805</v>
+        <v>1.158557851365955</v>
       </c>
       <c r="J52" t="n">
-        <v>1.3016580957840245</v>
+        <v>1.2849492649570768</v>
       </c>
       <c r="K52" t="n">
-        <v>1.3016580957840245</v>
+        <v>1.2849492649570768</v>
       </c>
       <c r="L52" t="n">
-        <v>1.3096789277976641</v>
+        <v>1.31015965470727</v>
       </c>
       <c r="M52" t="n" s="2">
-        <v>43951.0</v>
+        <v>43953.0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>63</v>
+      </c>
+      <c r="B53" t="n">
+        <v>53.0</v>
+      </c>
+      <c r="C53" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="D53" t="n">
+        <v>1.131061887600023</v>
+      </c>
+      <c r="E53" t="n">
+        <v>0.0724088175496594</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0.9935834334050101</v>
+      </c>
+      <c r="G53" t="n">
+        <v>1.014652956664784</v>
+      </c>
+      <c r="H53" t="n">
+        <v>1.2527403458777775</v>
+      </c>
+      <c r="I53" t="n">
+        <v>1.129517096916728</v>
+      </c>
+      <c r="J53" t="n">
+        <v>1.2527403458777775</v>
+      </c>
+      <c r="K53" t="n">
+        <v>1.2527403458777775</v>
+      </c>
+      <c r="L53" t="n">
+        <v>1.2773188045272132</v>
+      </c>
+      <c r="M53" t="n" s="2">
+        <v>43954.0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>64</v>
+      </c>
+      <c r="B54" t="n">
+        <v>54.0</v>
+      </c>
+      <c r="C54" t="n">
+        <v>61.0</v>
+      </c>
+      <c r="D54" t="n">
+        <v>1.1392660573894635</v>
+      </c>
+      <c r="E54" t="n">
+        <v>0.07162504335807673</v>
+      </c>
+      <c r="F54" t="n">
+        <v>1.0031960386399397</v>
+      </c>
+      <c r="G54" t="n">
+        <v>1.0240683673114583</v>
+      </c>
+      <c r="H54" t="n">
+        <v>1.2595827246399565</v>
+      </c>
+      <c r="I54" t="n">
+        <v>1.1377654001745807</v>
+      </c>
+      <c r="J54" t="n">
+        <v>1.2595827246399565</v>
+      </c>
+      <c r="K54" t="n">
+        <v>1.2595827246399565</v>
+      </c>
+      <c r="L54" t="n">
+        <v>1.283863760782516</v>
+      </c>
+      <c r="M54" t="n" s="2">
+        <v>43955.0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>65</v>
+      </c>
+      <c r="B55" t="n">
+        <v>55.0</v>
+      </c>
+      <c r="C55" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="D55" t="n">
+        <v>1.1660199965503006</v>
+      </c>
+      <c r="E55" t="n">
+        <v>0.07149327305111135</v>
+      </c>
+      <c r="F55" t="n">
+        <v>1.0300926930502186</v>
+      </c>
+      <c r="G55" t="n">
+        <v>1.0509683453747973</v>
+      </c>
+      <c r="H55" t="n">
+        <v>1.286054837981567</v>
+      </c>
+      <c r="I55" t="n">
+        <v>1.1645591445766907</v>
+      </c>
+      <c r="J55" t="n">
+        <v>1.286054837981567</v>
+      </c>
+      <c r="K55" t="n">
+        <v>1.286054837981567</v>
+      </c>
+      <c r="L55" t="n">
+        <v>1.3102488064356694</v>
+      </c>
+      <c r="M55" t="n" s="2">
+        <v>43956.0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>66</v>
+      </c>
+      <c r="B56" t="n">
+        <v>56.0</v>
+      </c>
+      <c r="C56" t="n">
+        <v>63.0</v>
+      </c>
+      <c r="D56" t="n">
+        <v>1.1881437167275737</v>
+      </c>
+      <c r="E56" t="n">
+        <v>0.07113230369802359</v>
+      </c>
+      <c r="F56" t="n">
+        <v>1.052803259698044</v>
+      </c>
+      <c r="G56" t="n">
+        <v>1.0736120966827003</v>
+      </c>
+      <c r="H56" t="n">
+        <v>1.3075165254153804</v>
+      </c>
+      <c r="I56" t="n">
+        <v>1.186724492084651</v>
+      </c>
+      <c r="J56" t="n">
+        <v>1.3075165254153804</v>
+      </c>
+      <c r="K56" t="n">
+        <v>1.3075165254153804</v>
+      </c>
+      <c r="L56" t="n">
+        <v>1.3315491446163301</v>
+      </c>
+      <c r="M56" t="n" s="2">
+        <v>43957.0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>67</v>
+      </c>
+      <c r="B57" t="n">
+        <v>57.0</v>
+      </c>
+      <c r="C57" t="n">
+        <v>64.0</v>
+      </c>
+      <c r="D57" t="n">
+        <v>1.1820509383162379</v>
+      </c>
+      <c r="E57" t="n">
+        <v>0.06977426072086967</v>
+      </c>
+      <c r="F57" t="n">
+        <v>1.0492376853400558</v>
+      </c>
+      <c r="G57" t="n">
+        <v>1.0696712511063315</v>
+      </c>
+      <c r="H57" t="n">
+        <v>1.299112759992321</v>
+      </c>
+      <c r="I57" t="n">
+        <v>1.1806783406856498</v>
+      </c>
+      <c r="J57" t="n">
+        <v>1.299112759992321</v>
+      </c>
+      <c r="K57" t="n">
+        <v>1.299112759992321</v>
+      </c>
+      <c r="L57" t="n">
+        <v>1.3226642065794632</v>
+      </c>
+      <c r="M57" t="n" s="2">
+        <v>43958.0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>68</v>
+      </c>
+      <c r="B58" t="n">
+        <v>58.0</v>
+      </c>
+      <c r="C58" t="n">
+        <v>65.0</v>
+      </c>
+      <c r="D58" t="n">
+        <v>1.1837195839036154</v>
+      </c>
+      <c r="E58" t="n">
+        <v>0.06857103438112293</v>
+      </c>
+      <c r="F58" t="n">
+        <v>1.053123753378612</v>
+      </c>
+      <c r="G58" t="n">
+        <v>1.0732332591344786</v>
+      </c>
+      <c r="H58" t="n">
+        <v>1.2987216097405623</v>
+      </c>
+      <c r="I58" t="n">
+        <v>1.182395776403595</v>
+      </c>
+      <c r="J58" t="n">
+        <v>1.2987216097405623</v>
+      </c>
+      <c r="K58" t="n">
+        <v>1.2987216097405623</v>
+      </c>
+      <c r="L58" t="n">
+        <v>1.3218381839123563</v>
+      </c>
+      <c r="M58" t="n" s="2">
+        <v>43959.0</v>
       </c>
     </row>
   </sheetData>
